--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -143,9 +143,6 @@
 validate_Result=Restored
 };
 </t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,9 +811,7 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="217.5" thickBot="1">
@@ -837,15 +832,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="268.5" thickBot="1">
@@ -872,9 +865,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="217.5" thickBot="1">
@@ -895,15 +886,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="268.5" thickBot="1">
@@ -924,15 +913,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
@@ -75,19 +75,6 @@
     <t>Zoom- page parameter value greater than 1</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT366_0097_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(60);
-validate4;
-</t>
-  </si>
-  <si>
     <t>wait(2);
 validate1;
 link_Click(DeviceApplication_test_link);
@@ -168,7 +155,69 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT366-0108
+};
+validate4
+{
+validate_Screenshot=VT366_0108
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=RE 2.2 Tests
+};
+validate2
+{
+validate_PageTitle=Device &amp; Application
+};
+validate3
+{
+validate_Text_Exists=VT366-0098
+};
+validate4
+{
+validate_AppMinimized=AppsScreen
+};
+</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT366_0097_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(60);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(DeviceApplication_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT366_0098_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(4);
@@ -180,30 +229,10 @@
 ClickRunTest(runtest_top_xpath);
 wait(2);
 TakeScreenshot(VT366_0110_after);
-validate5;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT366-0108
-};
-validate4
-{
-validate_Screenshot=VT366_0108
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(2);
 validate1;
 link_Click(DeviceApplication_test_link);
 wait(2);
@@ -216,40 +245,7 @@
 wait(2);
 SwitchApp(NATIVE_APP);
 TakeNativeScreenshot(VT366_0108);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(2);
-validate1;
-link_Click(DeviceApplication_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT366_0098_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=RE 2.2 Tests
-};
-validate2
-{
-validate_PageTitle=Device &amp; Application
-};
-validate3
-{
-validate_Text_Exists=VT366-0098
-};
-validate4
-{
-validate_AppMinimized=AppsScreen
-};
-</t>
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -736,7 +732,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -832,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -859,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -886,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -913,10 +909,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_DeviceApplication.xlsx
@@ -244,7 +244,7 @@
 link_Click(VT366_0108_textbox_xpath);
 wait(2);
 SwitchApp(NATIVE_APP);
-TakeNativeScreenshot(VT366_0108);
+TakeScreenshot(VT366_0108);
 validate4;</t>
   </si>
 </sst>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
